--- a/Simuladores/Simuladores.xlsx
+++ b/Simuladores/Simuladores.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UPM\beca24_25\Repo\Simuladores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6745999E-DF51-451B-BD39-0F7D595F366F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AADFF59-7908-4319-8BD0-E8D6B2DF022C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista Resumen" sheetId="8" r:id="rId1"/>
-    <sheet name="Tabla Comparativa" sheetId="9" r:id="rId2"/>
+    <sheet name="Tabla Comparativa " sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Simulador</t>
   </si>
@@ -97,13 +97,43 @@
   </si>
   <si>
     <t>https://github.com/riscv/riscv-qemu</t>
+  </si>
+  <si>
+    <t>Cachés</t>
+  </si>
+  <si>
+    <t>Entada Salida</t>
+  </si>
+  <si>
+    <t>Interfaz</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>Comparación por Funciones del Simulador</t>
+  </si>
+  <si>
+    <t>Comparación por Características del Entorno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceso de Instalación </t>
+  </si>
+  <si>
+    <t>Entorno</t>
+  </si>
+  <si>
+    <t>Sistemas Operativos</t>
+  </si>
+  <si>
+    <t>Lenguaje programación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,8 +149,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,8 +171,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -157,16 +201,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1649EF20-10A6-45AD-85D0-1513FF43AEF3}">
-  <dimension ref="A3:C30"/>
+  <dimension ref="B3:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B3" sqref="B3:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,7 +560,7 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -479,7 +568,7 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -487,7 +576,7 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -495,7 +584,7 @@
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -503,7 +592,7 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -511,7 +600,7 @@
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -519,7 +608,7 @@
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -527,7 +616,7 @@
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -535,69 +624,9 @@
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -617,12 +646,236 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C565F6E0-0C4D-4E1F-9234-80F1CB5FA8E8}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="6" width="22.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B21:F21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Simuladores/Simuladores.xlsx
+++ b/Simuladores/Simuladores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UPM\beca24_25\Repo\Simuladores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AADFF59-7908-4319-8BD0-E8D6B2DF022C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F64842A-4B6B-4FAF-9121-A11C8D597D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>Simulador</t>
   </si>
@@ -127,6 +127,60 @@
   </si>
   <si>
     <t>Lenguaje programación</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C/C++</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>TypeScript/HTML</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Windows/Linux/Mac</t>
+  </si>
+  <si>
+    <t>Aplicación</t>
+  </si>
+  <si>
+    <t>MS Visual Studio Code</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>Muy sencillo</t>
+  </si>
+  <si>
+    <t>Medio/Ninguno</t>
+  </si>
+  <si>
+    <t>Ninguno</t>
+  </si>
+  <si>
+    <t>Muy alto</t>
+  </si>
+  <si>
+    <t>Secillo</t>
   </si>
 </sst>
 </file>
@@ -242,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -256,6 +310,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,7 +594,7 @@
   <dimension ref="B3:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,9 +693,10 @@
     <hyperlink ref="C10" r:id="rId6" xr:uid="{B64BD1AB-5A54-4400-8544-EB530F8A9B48}"/>
     <hyperlink ref="C11" r:id="rId7" xr:uid="{3CAED78D-9B9B-4A42-B543-D039ECB329B0}"/>
     <hyperlink ref="C12" r:id="rId8" xr:uid="{F0A0E918-5083-499C-A5C9-37F85DDD3CA6}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{1E5A23F3-8B7B-46CE-A3A6-B9A1BF97C33A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -648,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C565F6E0-0C4D-4E1F-9234-80F1CB5FA8E8}">
   <dimension ref="B3:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,82 +743,82 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
@@ -794,82 +850,154 @@
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="C26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="C28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="C29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="C30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="C31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Simuladores/Simuladores.xlsx
+++ b/Simuladores/Simuladores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UPM\beca24_25\Repo\Simuladores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F64842A-4B6B-4FAF-9121-A11C8D597D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C722B5-3FF1-4B83-A174-F2CA4FC724E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista Resumen" sheetId="8" r:id="rId1"/>
@@ -301,6 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -310,7 +311,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1649EF20-10A6-45AD-85D0-1513FF43AEF3}">
   <dimension ref="B3:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C565F6E0-0C4D-4E1F-9234-80F1CB5FA8E8}">
   <dimension ref="B3:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -714,13 +714,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -821,13 +821,13 @@
       <c r="F13" s="1"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
@@ -978,7 +978,7 @@
       <c r="E30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -995,7 +995,7 @@
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="4" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Simuladores/Simuladores.xlsx
+++ b/Simuladores/Simuladores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UPM\beca24_25\Repo\Simuladores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C722B5-3FF1-4B83-A174-F2CA4FC724E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F54443E-F231-4D8B-A73E-38A9BC5751FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista Resumen" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>Simulador</t>
   </si>
@@ -99,15 +99,6 @@
     <t>https://github.com/riscv/riscv-qemu</t>
   </si>
   <si>
-    <t>Cachés</t>
-  </si>
-  <si>
-    <t>Entada Salida</t>
-  </si>
-  <si>
-    <t>Interfaz</t>
-  </si>
-  <si>
     <t>Pipeline</t>
   </si>
   <si>
@@ -177,10 +168,31 @@
     <t>Ninguno</t>
   </si>
   <si>
-    <t>Muy alto</t>
-  </si>
-  <si>
     <t>Secillo</t>
+  </si>
+  <si>
+    <t>Código Abierto</t>
+  </si>
+  <si>
+    <t>Fuentes Disponibles</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>Entrada Salida</t>
+  </si>
+  <si>
+    <t>Simulación de Caché</t>
+  </si>
+  <si>
+    <t>Documentación</t>
+  </si>
+  <si>
+    <t>Asignaturas</t>
+  </si>
+  <si>
+    <t>Muy complejo</t>
   </si>
 </sst>
 </file>
@@ -303,13 +315,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,7 +605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1649EF20-10A6-45AD-85D0-1513FF43AEF3}">
   <dimension ref="B3:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -702,44 +714,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C565F6E0-0C4D-4E1F-9234-80F1CB5FA8E8}">
-  <dimension ref="B3:F31"/>
+  <dimension ref="B3:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="22.21875" customWidth="1"/>
+    <col min="2" max="8" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -747,8 +763,9 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -756,8 +773,9 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
@@ -765,8 +783,9 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
@@ -774,8 +793,9 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -783,8 +803,9 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -792,8 +813,9 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,8 +823,9 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +833,9 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
@@ -819,190 +843,231 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="1"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Simuladores/Simuladores.xlsx
+++ b/Simuladores/Simuladores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UPM\beca24_25\Repo\Simuladores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F54443E-F231-4D8B-A73E-38A9BC5751FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A63D70A-3C3E-4663-A610-C83B6F255FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="75">
   <si>
     <t>Simulador</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Secillo</t>
   </si>
   <si>
-    <t>Código Abierto</t>
-  </si>
-  <si>
     <t>Fuentes Disponibles</t>
   </si>
   <si>
@@ -193,6 +190,78 @@
   </si>
   <si>
     <t>Muy complejo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Entructura</t>
+  </si>
+  <si>
+    <t>Arquitectura/Estructura</t>
+  </si>
+  <si>
+    <t>Gráfico/No deshabilitable</t>
+  </si>
+  <si>
+    <t>Self-modifying Code</t>
+  </si>
+  <si>
+    <t>Habilitable</t>
+  </si>
+  <si>
+    <t>Grafica / Configurable</t>
+  </si>
+  <si>
+    <t>MMIO / Sin Excepciones / Sin interrupciones</t>
+  </si>
+  <si>
+    <t>Disponible / Calidad</t>
+  </si>
+  <si>
+    <t>MMIO / Excepciones / Interrupciones</t>
+  </si>
+  <si>
+    <t>Software Libre</t>
+  </si>
+  <si>
+    <t>Disponible / Buena</t>
+  </si>
+  <si>
+    <t>Disponible / Suficiente</t>
+  </si>
+  <si>
+    <t>Estructura</t>
+  </si>
+  <si>
+    <t>ecall / Sin Excepciones / Sin Interrupciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disponible / Buena </t>
+  </si>
+  <si>
+    <t>Sí / Sin Excepciones / Interrupciones</t>
+  </si>
+  <si>
+    <t>MIT License</t>
+  </si>
+  <si>
+    <t>BSD 3-Clause License</t>
+  </si>
+  <si>
+    <t>GPL-3.0 license</t>
+  </si>
+  <si>
+    <t>LGPL-2.0 license</t>
+  </si>
+  <si>
+    <t>MPL-2.0 license</t>
+  </si>
+  <si>
+    <t>Condicional</t>
   </si>
 </sst>
 </file>
@@ -224,7 +293,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,8 +312,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -304,11 +385,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -323,12 +424,26 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -605,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1649EF20-10A6-45AD-85D0-1513FF43AEF3}">
   <dimension ref="B3:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,134 +831,257 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C565F6E0-0C4D-4E1F-9234-80F1CB5FA8E8}">
   <dimension ref="B3:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="8" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="37.21875" customWidth="1"/>
+    <col min="4" max="8" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="C13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
@@ -873,10 +1111,10 @@
         <v>25</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
@@ -895,10 +1133,12 @@
       <c r="F23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="1"/>
+      <c r="G23" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
@@ -916,10 +1156,12 @@
       <c r="F24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="1"/>
+      <c r="G24" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
@@ -937,10 +1179,12 @@
       <c r="F25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="1"/>
+      <c r="G25" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
@@ -958,10 +1202,12 @@
       <c r="F26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="1"/>
+      <c r="G26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
@@ -979,10 +1225,12 @@
       <c r="F27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="1"/>
+      <c r="G27" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
@@ -1000,10 +1248,12 @@
       <c r="F28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="1"/>
+      <c r="G28" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
@@ -1021,17 +1271,19 @@
       <c r="F29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" s="1"/>
+      <c r="G29" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>31</v>
@@ -1040,17 +1292,21 @@
         <v>39</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>30</v>
@@ -1059,15 +1315,19 @@
         <v>39</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Simuladores/Simuladores.xlsx
+++ b/Simuladores/Simuladores.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UPM\beca24_25\Repo\Simuladores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A63D70A-3C3E-4663-A610-C83B6F255FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009588EA-85A3-4542-8192-8FB816FB9B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista Resumen" sheetId="8" r:id="rId1"/>
     <sheet name="Tabla Comparativa " sheetId="9" r:id="rId2"/>
+    <sheet name="Análisis" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="105">
   <si>
     <t>Simulador</t>
   </si>
@@ -204,9 +205,6 @@
     <t>Arquitectura/Estructura</t>
   </si>
   <si>
-    <t>Gráfico/No deshabilitable</t>
-  </si>
-  <si>
     <t>Self-modifying Code</t>
   </si>
   <si>
@@ -262,13 +260,106 @@
   </si>
   <si>
     <t>Condicional</t>
+  </si>
+  <si>
+    <t>Eclipse RISCV</t>
+  </si>
+  <si>
+    <t>https://eclipse-embed-cdt.github.io/tags/risc-v/</t>
+  </si>
+  <si>
+    <t>Complejo</t>
+  </si>
+  <si>
+    <t>Eclipse Embedded</t>
+  </si>
+  <si>
+    <t>EPL-2.0 license</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>RIPES</t>
+  </si>
+  <si>
+    <t>Ventajas:</t>
+  </si>
+  <si>
+    <t>Desventajas:</t>
+  </si>
+  <si>
+    <t>Gráfico / Deshabilitable Parcialmente</t>
+  </si>
+  <si>
+    <t>Gráfico / No deshabilitable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El proceso de instalación es demasiado complejo, y pesado; incluso cuando instalas versiones ya compiladas el apartado de configuración de la máquina para que todo funcione de manera correcta, se vuelve demasado tedioso y difícil. Por otra parte la documentación está muy poco centralizada haciendo la búsqueda de información y soluciones muy compleja. Para finalizar este punto, tenemos que el apartado gráfico es casi nulo, donde lo único de lo que disponemos es el gdb con gui, que aparte de permitirte ir instruccion por instruccion viendo los registros y valores de memoria no tienen más recorrido. </t>
+  </si>
+  <si>
+    <t>Tenemos un simulador de terminal, de manera que tenemos un entorno que se nos puede hacer más fácil de configurar para los autocorrectores. Por otro lado te permite simular la máquina entera de forma que podrías, si lo configuras de manera correcta, tener un entorno más profesional.</t>
+  </si>
+  <si>
+    <t>La principal desventaja de este entorno es su configuración, esta es relativamente compleja en la que hay que seguir varios pasos para poder armar un proyecto y empezar a trabajar con este. El apartado de configuración nos muestra opciones muy extensas que pueden ser abrumadoras para un usuario que recién esté tratando de empezar. Por otro lado este entorno no cuenta con un apartado gráfico ni para memoria caché, ni para pipeline. Y en cuanto a la entrada salida los periféricos se tendrían que añadir puesto que el propio apartado empieza de cero, es decir no cuenta ni siquiera con un ejemplo sobre el que apoyarse.</t>
+  </si>
+  <si>
+    <t>Como su princial ventaja, tenemos que este es un simulador por terminal, esto junto a que puede simular la máquina real de una manera más profesional y no tan académica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El proceso de instalación y configuración es abrumadoramente complejo, no solo no se puede realizar por apt, sino que incluso si consigues una copia ya compilada es muy probable que de problemas de configuración al desplegarla sobre el propio entorno. Por otra parte, el apartado gráfico de este simulador deja bastante que desear siendo que solo puedes acceder a los registros del programa si ejecutas con gdb intrucción por instruccion. </t>
+  </si>
+  <si>
+    <t>Como principal ventaja de este simulador, nos encontramos que la configuración e instalación necesarias son nulas, es decir, al ser un simulador web no es necesario que se realice instalación de ningún tipo, sino que se puede simplemente acceder a la página web. Por otro lado este simulador cuenta con un pequeño apartado cuando se está editando el código que muestra todas las posibles instrucciones y pseudoinstrucciones que se pueden usar, donde si pinchas en cualquiera da una pequeña descripción. Ya para finalizar, el apartado del pipeline es bastante gráfico, siendo que el simulador se centra principalmente en esto.</t>
+  </si>
+  <si>
+    <t>Como principal desventaja de este simulador, nos encontramos con su entorno: a pesar de no necesitar mucho para la instalación, el que se ejecute sobre otro entorno web genera otra serie de problemas, como por ejemplo el donde se alojará la propia página, o si podría haber problemas de sobresaturación. Por otro lado en la interfáz propia del simulador, el pipeline y sus características no se pueden deshabilitar en la versión fuente, donde cabe también añadir que no cuenta con simulación de memoria caché.</t>
+  </si>
+  <si>
+    <t>Como principal ventaja cabe destacar el uso de un entorno sobre el que los alumnos pueden estar relativamente familiarizados, en la creación de proyectos, debugging, etc. Por otro lado tenemos que se pueden compilar distintos archivos para un mismo programa, e incluso tener en un mismo proyecto ficheros ensamblador y ficheros c/c++, de la misma manera que trabajaríamos con el compilador por separado pero de forma más automatizada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como desventaja principal pondría el entorno: al ser por página web, con muchos alumnos accediendo al mismo tiempo se podría sobresaturar, esto junto a otros problemas relacionados pueden volver esta una opción inviable. Por otro lado, no se puede deshabilitar la ejecución segmentada, donde la instrucción que se está ejecutando en el momento no está lo suficentemente clara, o puede llevar a confusión. También carece de apartado de cachés, y entrada salida. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como principal desventaja tenemos que, este simulador ejecuta sobre un entorno web lo que ya hemos comprobado que puede ser un problema en determindos casos: por ejemplo, que se pueda sobresaturar el entorno. Por otro lado, si se busca algo más complejo, como por ejemplo entrada salida, o simulación de cachés no cuenta con estos apartados. Añadiendo a esto, podemos considerar que este simulador quizá se pase de simple, teniendo muy pocas opciones de configuración, donde la mayoría son meramente estéticas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como ventaja a destacar, este simulador se ejcuta en un entorno web por lo que no es necesario ningún proceso previo de instalación o configuración. También tenemos un entorno muy sencillo de entender y ya configurado para poder escribir y ejecutar código ensamblador riscv. Perfecto para cuando solo se necesita hacer pequeñas pruebas, o cuando recién se está empezando.  </t>
+  </si>
+  <si>
+    <t>Como principal ventaja de este simulador, tenemos que se despliega sobre un entorno web, lo que reduce significativamente la instalación y configuración previas necesarias. Por otro lado, tenemos que este simulador cuenta con simulación de entrada salida mediante interrupciones, de forma nativa. También cuenta con un apartado gráfico y dinámico para el pipeline y su ejecución.</t>
+  </si>
+  <si>
+    <t>Como la principal ventaja de este simulador, tenemos que este simulador se despliega sobre un entorno con el que los alumnos están bastante familiarizados como es Visual Studio Code. Donde el proceso de instalación y configuración es relativamente sencillo y se puede hacer directamente desde el propio entorno. Es fácil de configurar y preparar, contando también con algunos periféricos ya dados para poder jugar con la entrada salida, aunque esta no sea mediante interrupciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para resaltar las principales desventajas de este simulador: tenemos que este simulador puede quedarse escaso en ciertos aspectos, por ejemplo, no cuenta con simulación de memorias cahcé, ni con un pipeline gráfico, juntando que la entrada salida se hace enteramente mediante llamadas, no por interrupciones. Adicionalmente la visualización del valor de los registros y la memoria es un tanto simple, suficiente, pero mejorable. Por otro lado, dada la naturaleza del entorno, cambiar el código fuente o añadir nuevas funcionalidades puede convertirse en una tarea bastante compleja. </t>
+  </si>
+  <si>
+    <t>Como ventajas este simulador cuenta con: una instalación y configuración realmente sencialla, donde el único requisito que pide es tener instalada una versión del JDK superior o igual a la 8. Por otro lado este simulador cuenta con una de las interfaces gráficas más sencillas y amigables, donde solo tiene lo básico para poder escribir y ejecutar código ensamblador, con algunos apartados para configuración adicional y para simulación de memorias caché.</t>
+  </si>
+  <si>
+    <t>En contraposición a lo anterior podemos decir que tener una interfaz tan sencilla puede ser también un inconveniente: no contamos con apartados que pueden ser interesantes como es la entrada salida, o como puede ser la ejecución segmentada. Por otro lado la ejecución de las instrucciones podría estar más detallada. Adicionalmente a esto, como desventaja que he podido encontrar dentro del propio simulador, es la imposibilidad de declarar macros, siendo que no cuenta con la directiva específica que lo permite.</t>
+  </si>
+  <si>
+    <t>Este siulador es uno de los más completos que se pueden encontrar para el apartado de ensamblador. Por una parte cuenta con una interfáz muy completa, tanto en la ejecución como edición del código, y por el otro tenemos que es áltamente configurable, e incluso, por estar este simulador escrito en java, se podría tocar alguna funcionalidad. A pesar de no contar con otros aspectos interesantes como podría ser la ejecución segmentada, y teniendo un apartado de cachés bastante mejorable, y aún cuando este simulador cuenta con un apartado de entrada salida por interrupciones, todavía destaca para en el apartado de ensamblador puro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este punto tenemos que cuenta con el compilador de manera interna, lo que no nos permite por ejemplo ejecutar código c. Por otro lado los apartados de simulación de memoria caché y entrada salida dejan bastante que desear a nivel de usuario: el apartado de caché es bastante basto y cuenta con algunos bugs visuales mientras que el apartado de entrada salida está completamente descentralizado, siendo que hay varios dispositivos y cada uno tiene apartado y configuración propias. </t>
+  </si>
+  <si>
+    <t>Este simulador es uno de los más, por no decir el más, completos. Por una pare tenemos implementados todos los puntos interesantes como son: ejecución segmentada, entrada salida, cachés; de una forma muy gráfica y detallada, y si esto nos abruma podemos desactivar algunas partes. Este entorno es bastante configurable, junto a una de las documentaciones más completas que he visto. Por otro lado si se quieren añadir configuraciones o dispositivos, el programa está escrito en c++. Ya para finalizar el programa permite ejecutar tres tipos de archivos: los de ensambaldor puro, los programas escritos en c y los ejecutables ya montados. Aunque para todo lo que no se ensamblador puro se necesita el compilador a parte, junto a que los programas en c si se quieren compilar de manera interna solo pueden estar formados por un único fichero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es difícil sacar desventajas de este simulaodor por lo completo que es, puestos a elegir una de las más probables podría ser que el usuario inicial se viese abrumado por la cantidad de información de se despliega de forma natura, siendo que el primer apartado con el que se abre el simulador es el de la ejecución segmentada. También cabe añadir que para los programas en c más complejos es necesario armar el ejecutable fuera y ejecutarlo dentro. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,8 +383,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,8 +423,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -390,6 +501,55 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -405,16 +565,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -424,15 +599,42 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,6 +643,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFF5050"/>
       <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
@@ -718,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1649EF20-10A6-45AD-85D0-1513FF43AEF3}">
-  <dimension ref="B3:C12"/>
+  <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,17 +1000,25 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -818,8 +1030,8 @@
     <hyperlink ref="C7" r:id="rId4" xr:uid="{B4721132-7152-477C-B3C5-62522DF571F2}"/>
     <hyperlink ref="C8" r:id="rId5" xr:uid="{C7F2FCFC-F0F9-40FB-8C6B-B9646F96A15A}"/>
     <hyperlink ref="C10" r:id="rId6" xr:uid="{B64BD1AB-5A54-4400-8544-EB530F8A9B48}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{3CAED78D-9B9B-4A42-B543-D039ECB329B0}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{F0A0E918-5083-499C-A5C9-37F85DDD3CA6}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{3CAED78D-9B9B-4A42-B543-D039ECB329B0}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{F0A0E918-5083-499C-A5C9-37F85DDD3CA6}"/>
     <hyperlink ref="C9" r:id="rId9" xr:uid="{1E5A23F3-8B7B-46CE-A3A6-B9A1BF97C33A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -829,71 +1041,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C565F6E0-0C4D-4E1F-9234-80F1CB5FA8E8}">
-  <dimension ref="B3:H31"/>
+  <dimension ref="B2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="22.21875" customWidth="1"/>
     <col min="3" max="3" width="37.21875" customWidth="1"/>
-    <col min="4" max="8" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" customWidth="1"/>
+    <col min="5" max="8" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+    </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>49</v>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>54</v>
@@ -901,140 +1137,140 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>63</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -1083,58 +1319,173 @@
         <v>34</v>
       </c>
     </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>44</v>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>69</v>
+      <c r="G23" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>45</v>
@@ -1142,21 +1493,21 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="6" t="s">
         <v>69</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -1165,169 +1516,2112 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>45</v>
+      <c r="G25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="G26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B16:H16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC3CF0D-FE49-41A2-AC63-057C284E465A}">
+  <dimension ref="B2:P129"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="17"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="20"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="20"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="23"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="17"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="20"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="20"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="20"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="23"/>
+    </row>
+    <row r="15" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="17"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B17" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="20"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="20"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="20"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="23"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="17"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="20"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="20"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="20"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="21"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="23"/>
+    </row>
+    <row r="28" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="14"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="17"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="20"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="20"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="20"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="23"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="17"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B35" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="20"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="20"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="20"/>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="23"/>
+    </row>
+    <row r="41" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B41" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="14"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="17"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B43" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="20"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="20"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="20"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="23"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B47" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="17"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B48" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="20"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="20"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="20"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="23"/>
+    </row>
+    <row r="54" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B54" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="14"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="17"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B56" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="20"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="20"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="20"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="23"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B60" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="17"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B61" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="20"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B62" s="18"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="20"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="20"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B64" s="21"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="23"/>
+    </row>
+    <row r="67" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B67" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="14"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B68" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="17"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B69" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="20"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="20"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="20"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B72" s="21"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="23"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B73" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="17"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B74" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="20"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="20"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B76" s="18"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="20"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B77" s="21"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="23"/>
+    </row>
+    <row r="80" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B80" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="14"/>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B81" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" s="15"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="17"/>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B82" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="20"/>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B83" s="18"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="20"/>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B84" s="18"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="20"/>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B85" s="21"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="22"/>
+      <c r="P85" s="23"/>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B86" s="8"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="17"/>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B87" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="20"/>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B88" s="18"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
+      <c r="P88" s="20"/>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B89" s="18"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="20"/>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B90" s="21"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="22"/>
+      <c r="P90" s="23"/>
+    </row>
+    <row r="93" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B93" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
+      <c r="O93" s="13"/>
+      <c r="P93" s="14"/>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B94" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" s="15"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="16"/>
+      <c r="P94" s="17"/>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B95" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="19"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="19"/>
+      <c r="O95" s="19"/>
+      <c r="P95" s="20"/>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B96" s="18"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="19"/>
+      <c r="P96" s="20"/>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B97" s="18"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="19"/>
+      <c r="P97" s="20"/>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B98" s="21"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="22"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="22"/>
+      <c r="O98" s="22"/>
+      <c r="P98" s="23"/>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B99" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="15"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="16"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="16"/>
+      <c r="P99" s="17"/>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B100" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="19"/>
+      <c r="L100" s="19"/>
+      <c r="M100" s="19"/>
+      <c r="N100" s="19"/>
+      <c r="O100" s="19"/>
+      <c r="P100" s="20"/>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B101" s="18"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19"/>
+      <c r="L101" s="19"/>
+      <c r="M101" s="19"/>
+      <c r="N101" s="19"/>
+      <c r="O101" s="19"/>
+      <c r="P101" s="20"/>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B102" s="18"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="19"/>
+      <c r="L102" s="19"/>
+      <c r="M102" s="19"/>
+      <c r="N102" s="19"/>
+      <c r="O102" s="19"/>
+      <c r="P102" s="20"/>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B103" s="21"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="22"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="22"/>
+      <c r="O103" s="22"/>
+      <c r="P103" s="23"/>
+    </row>
+    <row r="106" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B106" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="13"/>
+      <c r="N106" s="13"/>
+      <c r="O106" s="13"/>
+      <c r="P106" s="14"/>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B107" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C107" s="15"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="16"/>
+      <c r="M107" s="16"/>
+      <c r="N107" s="16"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="17"/>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B108" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="19"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="19"/>
+      <c r="N108" s="19"/>
+      <c r="O108" s="19"/>
+      <c r="P108" s="20"/>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B109" s="18"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="19"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="19"/>
+      <c r="M109" s="19"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="19"/>
+      <c r="P109" s="20"/>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B110" s="18"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="19"/>
+      <c r="K110" s="19"/>
+      <c r="L110" s="19"/>
+      <c r="M110" s="19"/>
+      <c r="N110" s="19"/>
+      <c r="O110" s="19"/>
+      <c r="P110" s="20"/>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B111" s="21"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="22"/>
+      <c r="J111" s="22"/>
+      <c r="K111" s="22"/>
+      <c r="L111" s="22"/>
+      <c r="M111" s="22"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="23"/>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B112" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C112" s="15"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="16"/>
+      <c r="L112" s="16"/>
+      <c r="M112" s="16"/>
+      <c r="N112" s="16"/>
+      <c r="O112" s="16"/>
+      <c r="P112" s="17"/>
+    </row>
+    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B113" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="19"/>
+      <c r="K113" s="19"/>
+      <c r="L113" s="19"/>
+      <c r="M113" s="19"/>
+      <c r="N113" s="19"/>
+      <c r="O113" s="19"/>
+      <c r="P113" s="20"/>
+    </row>
+    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B114" s="18"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="19"/>
+      <c r="K114" s="19"/>
+      <c r="L114" s="19"/>
+      <c r="M114" s="19"/>
+      <c r="N114" s="19"/>
+      <c r="O114" s="19"/>
+      <c r="P114" s="20"/>
+    </row>
+    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B115" s="18"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="19"/>
+      <c r="L115" s="19"/>
+      <c r="M115" s="19"/>
+      <c r="N115" s="19"/>
+      <c r="O115" s="19"/>
+      <c r="P115" s="20"/>
+    </row>
+    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B116" s="21"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="22"/>
+      <c r="I116" s="22"/>
+      <c r="J116" s="22"/>
+      <c r="K116" s="22"/>
+      <c r="L116" s="22"/>
+      <c r="M116" s="22"/>
+      <c r="N116" s="22"/>
+      <c r="O116" s="22"/>
+      <c r="P116" s="23"/>
+    </row>
+    <row r="119" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B119" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="13"/>
+      <c r="M119" s="13"/>
+      <c r="N119" s="13"/>
+      <c r="O119" s="13"/>
+      <c r="P119" s="14"/>
+    </row>
+    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B120" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C120" s="15"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="16"/>
+      <c r="L120" s="16"/>
+      <c r="M120" s="16"/>
+      <c r="N120" s="16"/>
+      <c r="O120" s="16"/>
+      <c r="P120" s="17"/>
+    </row>
+    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B121" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="19"/>
+      <c r="K121" s="19"/>
+      <c r="L121" s="19"/>
+      <c r="M121" s="19"/>
+      <c r="N121" s="19"/>
+      <c r="O121" s="19"/>
+      <c r="P121" s="20"/>
+    </row>
+    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B122" s="18"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="19"/>
+      <c r="L122" s="19"/>
+      <c r="M122" s="19"/>
+      <c r="N122" s="19"/>
+      <c r="O122" s="19"/>
+      <c r="P122" s="20"/>
+    </row>
+    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B123" s="18"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="19"/>
+      <c r="K123" s="19"/>
+      <c r="L123" s="19"/>
+      <c r="M123" s="19"/>
+      <c r="N123" s="19"/>
+      <c r="O123" s="19"/>
+      <c r="P123" s="20"/>
+    </row>
+    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B124" s="21"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="22"/>
+      <c r="I124" s="22"/>
+      <c r="J124" s="22"/>
+      <c r="K124" s="22"/>
+      <c r="L124" s="22"/>
+      <c r="M124" s="22"/>
+      <c r="N124" s="22"/>
+      <c r="O124" s="22"/>
+      <c r="P124" s="23"/>
+    </row>
+    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B125" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C125" s="15"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="16"/>
+      <c r="L125" s="16"/>
+      <c r="M125" s="16"/>
+      <c r="N125" s="16"/>
+      <c r="O125" s="16"/>
+      <c r="P125" s="17"/>
+    </row>
+    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B126" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="19"/>
+      <c r="K126" s="19"/>
+      <c r="L126" s="19"/>
+      <c r="M126" s="19"/>
+      <c r="N126" s="19"/>
+      <c r="O126" s="19"/>
+      <c r="P126" s="20"/>
+    </row>
+    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B127" s="18"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="19"/>
+      <c r="K127" s="19"/>
+      <c r="L127" s="19"/>
+      <c r="M127" s="19"/>
+      <c r="N127" s="19"/>
+      <c r="O127" s="19"/>
+      <c r="P127" s="20"/>
+    </row>
+    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B128" s="18"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="19"/>
+      <c r="K128" s="19"/>
+      <c r="L128" s="19"/>
+      <c r="M128" s="19"/>
+      <c r="N128" s="19"/>
+      <c r="O128" s="19"/>
+      <c r="P128" s="20"/>
+    </row>
+    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B129" s="21"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="22"/>
+      <c r="G129" s="22"/>
+      <c r="H129" s="22"/>
+      <c r="I129" s="22"/>
+      <c r="J129" s="22"/>
+      <c r="K129" s="22"/>
+      <c r="L129" s="22"/>
+      <c r="M129" s="22"/>
+      <c r="N129" s="22"/>
+      <c r="O129" s="22"/>
+      <c r="P129" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="B41:P41"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="B17:P20"/>
+    <mergeCell ref="B22:P25"/>
+    <mergeCell ref="C16:P16"/>
+    <mergeCell ref="C21:P21"/>
+    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="C29:P29"/>
+    <mergeCell ref="B30:P33"/>
+    <mergeCell ref="C34:P34"/>
+    <mergeCell ref="B35:P38"/>
+    <mergeCell ref="B69:P72"/>
+    <mergeCell ref="C42:P42"/>
+    <mergeCell ref="B43:P46"/>
+    <mergeCell ref="C47:P47"/>
+    <mergeCell ref="B48:P51"/>
+    <mergeCell ref="B54:P54"/>
+    <mergeCell ref="C55:P55"/>
+    <mergeCell ref="B56:P59"/>
+    <mergeCell ref="C60:P60"/>
+    <mergeCell ref="B61:P64"/>
+    <mergeCell ref="B67:P67"/>
+    <mergeCell ref="C68:P68"/>
+    <mergeCell ref="B100:P103"/>
+    <mergeCell ref="C73:P73"/>
+    <mergeCell ref="B74:P77"/>
+    <mergeCell ref="B80:P80"/>
+    <mergeCell ref="C81:P81"/>
+    <mergeCell ref="B82:P85"/>
+    <mergeCell ref="C86:P86"/>
+    <mergeCell ref="B87:P90"/>
+    <mergeCell ref="B93:P93"/>
+    <mergeCell ref="C94:P94"/>
+    <mergeCell ref="B95:P98"/>
+    <mergeCell ref="C99:P99"/>
+    <mergeCell ref="C120:P120"/>
+    <mergeCell ref="B121:P124"/>
+    <mergeCell ref="C125:P125"/>
+    <mergeCell ref="B126:P129"/>
+    <mergeCell ref="B106:P106"/>
+    <mergeCell ref="C107:P107"/>
+    <mergeCell ref="B108:P111"/>
+    <mergeCell ref="C112:P112"/>
+    <mergeCell ref="B113:P116"/>
+    <mergeCell ref="B119:P119"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="C3:P3"/>
+    <mergeCell ref="B4:P7"/>
+    <mergeCell ref="B9:P12"/>
+    <mergeCell ref="C8:P8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Simuladores/Simuladores.xlsx
+++ b/Simuladores/Simuladores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UPM\beca24_25\Repo\Simuladores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009588EA-85A3-4542-8192-8FB816FB9B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114B2385-6B19-4B58-A012-2295D227BB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,16 +343,16 @@
     <t>En contraposición a lo anterior podemos decir que tener una interfaz tan sencilla puede ser también un inconveniente: no contamos con apartados que pueden ser interesantes como es la entrada salida, o como puede ser la ejecución segmentada. Por otro lado la ejecución de las instrucciones podría estar más detallada. Adicionalmente a esto, como desventaja que he podido encontrar dentro del propio simulador, es la imposibilidad de declarar macros, siendo que no cuenta con la directiva específica que lo permite.</t>
   </si>
   <si>
-    <t>Este siulador es uno de los más completos que se pueden encontrar para el apartado de ensamblador. Por una parte cuenta con una interfáz muy completa, tanto en la ejecución como edición del código, y por el otro tenemos que es áltamente configurable, e incluso, por estar este simulador escrito en java, se podría tocar alguna funcionalidad. A pesar de no contar con otros aspectos interesantes como podría ser la ejecución segmentada, y teniendo un apartado de cachés bastante mejorable, y aún cuando este simulador cuenta con un apartado de entrada salida por interrupciones, todavía destaca para en el apartado de ensamblador puro.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En este punto tenemos que cuenta con el compilador de manera interna, lo que no nos permite por ejemplo ejecutar código c. Por otro lado los apartados de simulación de memoria caché y entrada salida dejan bastante que desear a nivel de usuario: el apartado de caché es bastante basto y cuenta con algunos bugs visuales mientras que el apartado de entrada salida está completamente descentralizado, siendo que hay varios dispositivos y cada uno tiene apartado y configuración propias. </t>
-  </si>
-  <si>
-    <t>Este simulador es uno de los más, por no decir el más, completos. Por una pare tenemos implementados todos los puntos interesantes como son: ejecución segmentada, entrada salida, cachés; de una forma muy gráfica y detallada, y si esto nos abruma podemos desactivar algunas partes. Este entorno es bastante configurable, junto a una de las documentaciones más completas que he visto. Por otro lado si se quieren añadir configuraciones o dispositivos, el programa está escrito en c++. Ya para finalizar el programa permite ejecutar tres tipos de archivos: los de ensambaldor puro, los programas escritos en c y los ejecutables ya montados. Aunque para todo lo que no se ensamblador puro se necesita el compilador a parte, junto a que los programas en c si se quieren compilar de manera interna solo pueden estar formados por un único fichero.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es difícil sacar desventajas de este simulaodor por lo completo que es, puestos a elegir una de las más probables podría ser que el usuario inicial se viese abrumado por la cantidad de información de se despliega de forma natura, siendo que el primer apartado con el que se abre el simulador es el de la ejecución segmentada. También cabe añadir que para los programas en c más complejos es necesario armar el ejecutable fuera y ejecutarlo dentro. </t>
+    <t>Es difícil sacar desventajas de este simulaodor por lo completo que es, puestos a elegir una de las más probables podría ser que el usuario inicial se viese abrumado por la cantidad de información de se despliega de forma natura, siendo que el primer apartado con el que se abre el simulador es el de la ejecución segmentada. También cabe añadir que para los programas en c más complejos es necesario armar el ejecutable fuera y ejecutarlo dentro. Como punto en contra tenemos que tampoco tiene implementadas ni exepciones ni interrupciones para la entrada salida, solo permite programada.</t>
+  </si>
+  <si>
+    <t>Este simulador es uno de los más, por no decir el más, completos. Por una pare tenemos implementados todos los puntos interesantes como son: ejecución segmentada, entrada salida, cachés; de una forma muy gráfica y detallada, y si esto nos abruma podemos desactivar algunas partes. Este entorno es bastante configurable, contando con una documentación muy completa. Por otro lado si se quieren añadir configuraciones o dispositivos, el programa está escrito en c++. El programa permite ejecutar tres tipos de archivos: los de ensambaldor puro, los programas escritos en c y los ejecutables ya montados. Aunque para todo lo que no se ensamblador puro se necesita el compilador a parte, junto a que los programas en c si se quieren compilar de manera interna solo pueden estar formados por un único fichero. Ya para finalizar este simulador es muy cómodo para la parte ensamblador, puesto que se divide en dos pestañas donde podemos ver nuestro código junto al desensamblado con sus etiquetas.</t>
+  </si>
+  <si>
+    <t>Este siulador es uno de los más completos que se pueden encontrar para el apartado de ensamblador. Por una parte cuenta con una interfáz muy completa, tanto en la ejecución como edición del código, y por el otro tenemos que es áltamente configurable, e incluso, por estar este simulador escrito en java, se podría tocar alguna funcionalidad. A pesar de no contar con otros aspectos interesantes como podría ser la ejecución segmentada, y teniendo un apartado de cachés bastante mejorable, todavía destaca en el apartado de ensamblador puro. También cuenta con una implementación de interrupciones y excepciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En este punto tenemos que cuenta con el compilador de manera interna, lo que no nos permite por ejemplo ejecutar código c. Por otro lado los apartados de simulación de memoria caché y entrada salida dejan bastante que desear a nivel de usuario: el apartado de caché es bastante basto y cuenta con algunos bugs visuales mientras que el apartado de entrada salida está completamente descentralizado, siendo que hay varios dispositivos y cada uno tiene apartado y configuración propias. Tenemos que tener en cuenta también que para programar en ensamblador, el código una vez cargado no visualiza las etiquetas, lo que es bastante problemático en algunos casos. Adicionalmente, el apartado de interrupciones es posible que no sea conforme al estándar actual, habíendose quedado obsoleto. </t>
   </si>
 </sst>
 </file>
@@ -1596,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC3CF0D-FE49-41A2-AC63-057C284E465A}">
   <dimension ref="B2:P129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
